--- a/Requirements V2.0.xlsx
+++ b/Requirements V2.0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="396">
   <si>
     <t>Team Name</t>
   </si>
@@ -1147,7 +1147,7 @@
     <t>Ease of use</t>
   </si>
   <si>
-    <t>The application should be easy to use to allow for technologically illiterate donors to access all of its features</t>
+    <t>7, 133</t>
   </si>
   <si>
     <t>1. Number of steps needed to perform a certain action
@@ -1172,15 +1172,14 @@
     <t>30, 36, 37</t>
   </si>
   <si>
-    <t>Scalability</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The system should be able to handle a 50% increase in concurrent users without significant degradation in performance.</t>
-  </si>
-  <si>
-    <t>1. Percentage of utiliized server space
-2. Cost of increasing server space with current provider
-3. Time complexity of database functions</t>
+    <t>Ethics</t>
+  </si>
+  <si>
+    <t>The system should operate ethically, delivering promised service reliably and transparently</t>
+  </si>
+  <si>
+    <t>1. Track metrics related to donor retention, satisfaction, and engagement to measure the level of trust and confidence in the application, the higher the better.
+2. Analyse the users' perceptions of the app's ethical performance by taking the average of the users’ opinion on how ethical the application is through feedback forms</t>
   </si>
   <si>
     <t>Physical Security</t>
@@ -1405,7 +1404,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1489,13 +1488,10 @@
     <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -36961,13 +36957,13 @@
       <c r="B2" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>371</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>373</v>
       </c>
       <c r="F2" s="28" t="s">
@@ -36987,7 +36983,7 @@
       <c r="D3" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>377</v>
       </c>
       <c r="F3" s="28" t="s">
@@ -36998,19 +36994,19 @@
       <c r="A4" s="27">
         <v>3.0</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="E4" s="31">
-        <v>27.0</v>
-      </c>
-      <c r="F4" s="28" t="s">
+      <c r="E4" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>378</v>
       </c>
     </row>
@@ -37027,10 +37023,10 @@
       <c r="D5" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="29" t="s">
         <v>381</v>
       </c>
     </row>
@@ -37047,7 +37043,7 @@
       <c r="D6" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="29" t="s">
         <v>388</v>
       </c>
       <c r="F6" s="28" t="s">
@@ -37067,7 +37063,7 @@
       <c r="D7" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="32" t="s">
         <v>392</v>
       </c>
       <c r="F7" s="28" t="s">
@@ -37084,10 +37080,10 @@
       <c r="C8" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="34"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
